--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6400 Otras obligaciones corrientes/6401 - Auditoria de otras obligaciones corrientes.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6400 Otras obligaciones corrientes/6401 - Auditoria de otras obligaciones corrientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dara Macias\Desktop\FASE II - Ejecucion - Visacom\6000 Pasivos y Patrimonio\6400 Otras obligaciones corrientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\VISACOM\FASE II - Ejecucion\6000 Pasivos y Patrimonio\6400 Otras obligaciones corrientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1CAAB6-A08B-448A-ABE5-3E64BF97C951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DED3B6-82C1-4084-B32E-627DD7E5D432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="659" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="659" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cedula_Resumen" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,17 @@
     <sheet name="Detalle Contabilidad" sheetId="4" r:id="rId4"/>
     <sheet name="Roles" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="307">
   <si>
     <t>AUDITORIA DE NOMINA Y BENEFICIOS</t>
   </si>
@@ -945,6 +954,12 @@
   </si>
   <si>
     <t>Conclusiones (A ser completado por el Auditor a cargo del compromiso):</t>
+  </si>
+  <si>
+    <t>Saldo final (12/31/2020)</t>
+  </si>
+  <si>
+    <t>Al 31 de diciembre del 2020</t>
   </si>
 </sst>
 </file>
@@ -954,12 +969,12 @@
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.00\ %"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ ;\(#,##0.00\);\-#\ ;@\ "/>
-    <numFmt numFmtId="167" formatCode="_ \$* #,##0.00_ ;_ \$* \-#,##0.00_ ;_ \$* \-??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0\ ;\(#,##0\);\-#\ ;@\ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="#,##0\ ;\(#,##0\)"/>
-    <numFmt numFmtId="172" formatCode="0\ %"/>
+    <numFmt numFmtId="166" formatCode="_ \$* #,##0.00_ ;_ \$* \-#,##0.00_ ;_ \$* \-??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#,##0\ ;\(#,##0\);\-#\ ;@\ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="#,##0\ ;\(#,##0\)"/>
+    <numFmt numFmtId="171" formatCode="0\ %"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1225,7 +1240,7 @@
       <name val="Arial1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,6 +1329,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1849,8 +1870,8 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -1869,9 +1890,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1885,8 +1906,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1898,35 +1919,35 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="31" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="31" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="34" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="34" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="13" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="36" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="36" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="23" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="23" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="40" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="22" fillId="11" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="40" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="22" fillId="11" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1937,16 +1958,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1962,11 +1983,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="32" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="32" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2005,83 +2026,17 @@
     <xf numFmtId="3" fontId="34" fillId="0" borderId="29" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="35" fillId="0" borderId="30" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="35" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="13" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="35" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="34" fillId="0" borderId="37" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="34" fillId="0" borderId="38" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="34" fillId="0" borderId="39" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="34" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="27" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="29" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="33" fillId="0" borderId="26" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2113,16 +2068,16 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2131,19 +2086,19 @@
     <xf numFmtId="0" fontId="38" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2156,18 +2111,18 @@
     <xf numFmtId="49" fontId="36" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -2176,42 +2131,42 @@
     </xf>
     <xf numFmtId="49" fontId="36" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2223,7 +2178,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="38" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2236,33 +2191,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="36" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2271,20 +2225,14 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="39" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="39" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2295,13 +2243,90 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="26" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="27" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="29" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="34" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="16" borderId="30" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="35" fillId="16" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="35" fillId="16" borderId="13" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="34" fillId="16" borderId="35" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2310,6 +2335,8 @@
     <cellStyle name="Accent 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Bad 8" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="cf1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Error 9" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Comma 10" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
@@ -2319,8 +2346,6 @@
     <cellStyle name="Heading 1 14" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Heading 2 15" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Hyperlink 16" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note 17" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Status 18" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -2420,7 +2445,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>145080</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2565,7 +2590,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2863,1001 +2888,989 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="202" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="202" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="202" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" style="202" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="202" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="202" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="202" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="202" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="202" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="202" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="202" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="202" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="203" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="202" customWidth="1"/>
-    <col min="16" max="16384" width="10.5" style="202"/>
+    <col min="1" max="1" width="11.125" style="177" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="177" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="177" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.25" style="177" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="177" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="177" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="177" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="177" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="177" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="177" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="177" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="177" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="178" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="177" customWidth="1"/>
+    <col min="16" max="16384" width="10.5" style="177"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="125" customFormat="1" ht="20.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:15" s="105" customFormat="1" ht="20.25">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124">
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="197">
         <v>6401</v>
       </c>
-      <c r="O1" s="124"/>
-    </row>
-    <row r="2" spans="1:15" s="125" customFormat="1">
-      <c r="A2" s="121" t="s">
+      <c r="O1" s="197"/>
+    </row>
+    <row r="2" spans="1:15" s="105" customFormat="1">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123" t="s">
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="126" t="s">
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="126"/>
-    </row>
-    <row r="3" spans="1:15" s="125" customFormat="1">
-      <c r="A3" s="121" t="s">
+      <c r="O2" s="198"/>
+    </row>
+    <row r="3" spans="1:15" s="105" customFormat="1">
+      <c r="A3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="123" t="s">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="127">
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="199">
         <v>44134</v>
       </c>
-      <c r="O3" s="127"/>
-    </row>
-    <row r="4" spans="1:15" s="125" customFormat="1">
-      <c r="A4" s="121" t="s">
+      <c r="O3" s="199"/>
+    </row>
+    <row r="4" spans="1:15" s="105" customFormat="1">
+      <c r="A4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="123" t="s">
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="126" t="s">
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="126"/>
-    </row>
-    <row r="5" spans="1:15" s="125" customFormat="1">
-      <c r="A5" s="121" t="s">
+      <c r="O4" s="198"/>
+    </row>
+    <row r="5" spans="1:15" s="105" customFormat="1">
+      <c r="A5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123" t="s">
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
       <c r="N5" s="200"/>
       <c r="O5" s="200"/>
     </row>
-    <row r="6" spans="1:15" s="128" customFormat="1">
-      <c r="N6" s="129"/>
-    </row>
-    <row r="7" spans="1:15" s="128" customFormat="1" ht="25.5">
-      <c r="A7" s="130" t="s">
+    <row r="6" spans="1:15" s="106" customFormat="1">
+      <c r="N6" s="107"/>
+    </row>
+    <row r="7" spans="1:15" s="106" customFormat="1" ht="25.5">
+      <c r="A7" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="203" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="202" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="133" t="s">
+      <c r="F7" s="202"/>
+      <c r="G7" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="112" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="128" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="134">
+    <row r="8" spans="1:15" s="106" customFormat="1">
+      <c r="A8" s="201"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="110">
         <v>44073</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="135">
+      <c r="G8" s="111">
         <v>44196</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="134">
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="110">
         <v>43830</v>
       </c>
-      <c r="K8" s="136" t="s">
+      <c r="K8" s="112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="125" customFormat="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
-    </row>
-    <row r="10" spans="1:15" s="125" customFormat="1">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148" t="s">
+    <row r="9" spans="1:15" s="105" customFormat="1">
+      <c r="A9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
+    </row>
+    <row r="10" spans="1:15" s="105" customFormat="1">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="148" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="149"/>
-      <c r="K10" s="210"/>
-    </row>
-    <row r="11" spans="1:15" s="125" customFormat="1">
-      <c r="A11" s="154" t="s">
+      <c r="J10" s="125"/>
+      <c r="K10" s="185"/>
+    </row>
+    <row r="11" spans="1:15" s="105" customFormat="1">
+      <c r="A11" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="149">
+      <c r="C11" s="115"/>
+      <c r="D11" s="125">
         <v>7295</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="126">
         <v>0</v>
       </c>
-      <c r="F11" s="151">
+      <c r="F11" s="127">
         <v>0</v>
       </c>
-      <c r="G11" s="152">
+      <c r="G11" s="128">
         <f t="shared" ref="G11:G26" si="0">D11+E11-F11</f>
         <v>7295</v>
       </c>
-      <c r="H11" s="153" t="s">
+      <c r="H11" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="156" t="s">
+      <c r="I11" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="149">
+      <c r="J11" s="125">
         <v>1167</v>
       </c>
-      <c r="K11" s="210">
+      <c r="K11" s="185">
         <f>G11-J11</f>
         <v>6128</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="125" customFormat="1">
-      <c r="A12" s="154" t="s">
+    <row r="12" spans="1:15" s="105" customFormat="1">
+      <c r="A12" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="149">
+      <c r="C12" s="115"/>
+      <c r="D12" s="125">
         <v>2000</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="126">
         <v>0</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="127">
         <v>0</v>
       </c>
-      <c r="G12" s="152">
+      <c r="G12" s="128">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="158">
+      <c r="J12" s="134">
         <v>5183</v>
       </c>
-      <c r="K12" s="210">
+      <c r="K12" s="185">
         <f>G12-J12</f>
         <v>-3183</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="125" customFormat="1">
-      <c r="A13" s="154" t="s">
+    <row r="13" spans="1:15" s="105" customFormat="1">
+      <c r="A13" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="149">
+      <c r="C13" s="115"/>
+      <c r="D13" s="125">
         <v>405</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="126">
         <v>0</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="127">
         <v>0</v>
       </c>
-      <c r="G13" s="152">
+      <c r="G13" s="128">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="H13" s="159" t="s">
+      <c r="H13" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="158">
+      <c r="J13" s="134">
         <v>3431</v>
       </c>
-      <c r="K13" s="210">
+      <c r="K13" s="185">
         <f>G13-J13</f>
         <v>-3026</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="125" customFormat="1">
-      <c r="A14" s="154" t="s">
+    <row r="14" spans="1:15" s="105" customFormat="1">
+      <c r="A14" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="149">
+      <c r="C14" s="115"/>
+      <c r="D14" s="125">
         <v>369</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="126">
         <v>0</v>
       </c>
-      <c r="F14" s="151">
+      <c r="F14" s="127">
         <v>0</v>
       </c>
-      <c r="G14" s="152">
+      <c r="G14" s="128">
         <f t="shared" si="0"/>
         <v>369</v>
       </c>
-      <c r="H14" s="157" t="s">
+      <c r="H14" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="161" t="s">
+      <c r="I14" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="162">
+      <c r="J14" s="138">
         <v>636</v>
       </c>
-      <c r="K14" s="210">
+      <c r="K14" s="185">
         <f>G14-J14</f>
         <v>-267</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="125" customFormat="1">
-      <c r="A15" s="154"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="210"/>
-    </row>
-    <row r="16" spans="1:15" s="125" customFormat="1">
-      <c r="A16" s="154"/>
-      <c r="B16" s="163" t="s">
+    <row r="15" spans="1:15" s="105" customFormat="1">
+      <c r="A15" s="130"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="185"/>
+    </row>
+    <row r="16" spans="1:15" s="105" customFormat="1">
+      <c r="A16" s="130"/>
+      <c r="B16" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="163" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="J16" s="162"/>
-      <c r="K16" s="210"/>
-    </row>
-    <row r="17" spans="1:11" s="164" customFormat="1">
-      <c r="A17" s="154" t="s">
+      <c r="J16" s="138"/>
+      <c r="K16" s="185"/>
+    </row>
+    <row r="17" spans="1:11" s="140" customFormat="1">
+      <c r="A17" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="149">
+      <c r="C17" s="115"/>
+      <c r="D17" s="125">
         <v>1085</v>
       </c>
-      <c r="E17" s="150">
+      <c r="E17" s="126">
         <v>0</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="127">
         <v>0</v>
       </c>
-      <c r="G17" s="152">
+      <c r="G17" s="128">
         <f>D17+E17-F17</f>
         <v>1085</v>
       </c>
-      <c r="H17" s="155" t="s">
+      <c r="H17" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="155" t="s">
+      <c r="I17" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="149">
+      <c r="J17" s="125">
         <v>1561</v>
       </c>
-      <c r="K17" s="210">
-        <f>G17-J17</f>
+      <c r="K17" s="185">
+        <f t="shared" ref="K17:K26" si="1">G17-J17</f>
         <v>-476</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="125" customFormat="1">
-      <c r="A18" s="154" t="s">
+    <row r="18" spans="1:11" s="105" customFormat="1">
+      <c r="A18" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="149">
+      <c r="C18" s="115"/>
+      <c r="D18" s="125">
         <v>97</v>
       </c>
-      <c r="E18" s="150">
+      <c r="E18" s="126">
         <v>0</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="127">
         <v>0</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="128">
         <f>D18+E18-F18</f>
         <v>97</v>
       </c>
-      <c r="H18" s="157" t="s">
+      <c r="H18" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="161" t="s">
+      <c r="I18" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="158">
+      <c r="J18" s="134">
         <v>140</v>
       </c>
-      <c r="K18" s="210">
-        <f>G18-J18</f>
+      <c r="K18" s="185">
+        <f t="shared" si="1"/>
         <v>-43</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="125" customFormat="1">
-      <c r="A19" s="165" t="s">
+    <row r="19" spans="1:11" s="105" customFormat="1">
+      <c r="A19" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="167">
+      <c r="C19" s="115"/>
+      <c r="D19" s="143">
         <v>919</v>
       </c>
-      <c r="E19" s="150">
+      <c r="E19" s="126">
         <v>0</v>
       </c>
-      <c r="F19" s="151">
+      <c r="F19" s="127">
         <v>0</v>
       </c>
-      <c r="G19" s="152">
+      <c r="G19" s="128">
         <f t="shared" si="0"/>
         <v>919</v>
       </c>
-      <c r="H19" s="157" t="s">
+      <c r="H19" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="166" t="s">
+      <c r="I19" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="168">
+      <c r="J19" s="144">
         <v>1323</v>
       </c>
-      <c r="K19" s="210">
-        <f>G19-J19</f>
+      <c r="K19" s="185">
+        <f t="shared" si="1"/>
         <v>-404</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="125" customFormat="1">
-      <c r="A20" s="165" t="s">
+    <row r="20" spans="1:11" s="105" customFormat="1">
+      <c r="A20" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="166" t="s">
+      <c r="B20" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="168">
+      <c r="C20" s="115"/>
+      <c r="D20" s="144">
         <v>526</v>
       </c>
-      <c r="E20" s="150">
+      <c r="E20" s="126">
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="127">
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="128">
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
-      <c r="H20" s="157" t="s">
+      <c r="H20" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="156" t="s">
+      <c r="I20" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="168">
+      <c r="J20" s="144">
         <v>1025</v>
       </c>
-      <c r="K20" s="210">
-        <f>G20-J20</f>
+      <c r="K20" s="185">
+        <f t="shared" si="1"/>
         <v>-499</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="125" customFormat="1">
-      <c r="A21" s="165" t="s">
+    <row r="21" spans="1:11" s="105" customFormat="1">
+      <c r="A21" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="168">
+      <c r="C21" s="115"/>
+      <c r="D21" s="144">
         <v>1287</v>
       </c>
-      <c r="E21" s="150">
+      <c r="E21" s="126">
         <v>0</v>
       </c>
-      <c r="F21" s="151">
+      <c r="F21" s="127">
         <v>0</v>
       </c>
-      <c r="G21" s="152">
+      <c r="G21" s="128">
         <f t="shared" si="0"/>
         <v>1287</v>
       </c>
-      <c r="H21" s="169" t="s">
+      <c r="H21" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="170" t="s">
+      <c r="I21" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="168">
+      <c r="J21" s="144">
         <v>903</v>
       </c>
-      <c r="K21" s="210">
-        <f>G21-J21</f>
+      <c r="K21" s="185">
+        <f t="shared" si="1"/>
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="125" customFormat="1">
-      <c r="A22" s="165" t="s">
+    <row r="22" spans="1:11" s="105" customFormat="1">
+      <c r="A22" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="168">
+      <c r="C22" s="115"/>
+      <c r="D22" s="144">
         <v>15</v>
       </c>
-      <c r="E22" s="150">
+      <c r="E22" s="126">
         <v>0</v>
       </c>
-      <c r="F22" s="151">
+      <c r="F22" s="127">
         <v>0</v>
       </c>
-      <c r="G22" s="152">
+      <c r="G22" s="128">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H22" s="169" t="s">
+      <c r="H22" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="170" t="s">
+      <c r="I22" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="149">
+      <c r="J22" s="125">
         <v>28</v>
       </c>
-      <c r="K22" s="210">
-        <f>G22-J22</f>
+      <c r="K22" s="185">
+        <f t="shared" si="1"/>
         <v>-13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="164" customFormat="1">
-      <c r="A23" s="155"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="150">
+    <row r="23" spans="1:11" s="140" customFormat="1">
+      <c r="A23" s="131"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="126">
         <v>0</v>
       </c>
-      <c r="E23" s="150">
+      <c r="E23" s="126">
         <v>0</v>
       </c>
-      <c r="F23" s="151">
+      <c r="F23" s="127">
         <v>0</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="149">
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="125">
         <v>0</v>
       </c>
-      <c r="K23" s="210">
-        <f>G23-J23</f>
+      <c r="K23" s="185">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="164" customFormat="1">
-      <c r="A24" s="155"/>
-      <c r="B24" s="148" t="s">
+    <row r="24" spans="1:11" s="140" customFormat="1">
+      <c r="A24" s="131"/>
+      <c r="B24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="168">
+      <c r="C24" s="115"/>
+      <c r="D24" s="144">
         <v>0</v>
       </c>
-      <c r="E24" s="150">
+      <c r="E24" s="126">
         <v>0</v>
       </c>
-      <c r="F24" s="151">
+      <c r="F24" s="127">
         <v>0</v>
       </c>
-      <c r="G24" s="152">
+      <c r="G24" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="169"/>
-      <c r="I24" s="148" t="s">
+      <c r="H24" s="145"/>
+      <c r="I24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="149">
+      <c r="J24" s="125">
         <v>0</v>
       </c>
-      <c r="K24" s="210">
-        <f>G24-J24</f>
+      <c r="K24" s="185">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="164" customFormat="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="155" t="s">
+    <row r="25" spans="1:11" s="140" customFormat="1">
+      <c r="A25" s="131"/>
+      <c r="B25" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="150">
+      <c r="C25" s="115"/>
+      <c r="D25" s="126">
         <v>0</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="126">
         <v>0</v>
       </c>
-      <c r="F25" s="151">
+      <c r="F25" s="127">
         <v>0</v>
       </c>
-      <c r="G25" s="152">
+      <c r="G25" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169" t="s">
+      <c r="H25" s="145"/>
+      <c r="I25" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="149">
+      <c r="J25" s="125">
         <v>0</v>
       </c>
-      <c r="K25" s="210">
-        <f>G25-J25</f>
+      <c r="K25" s="185">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="125" customFormat="1">
-      <c r="A26" s="171"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="152">
+    <row r="26" spans="1:11" s="105" customFormat="1">
+      <c r="A26" s="147"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="128">
         <v>0</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="126">
         <v>0</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="127">
         <v>0</v>
       </c>
-      <c r="G26" s="173">
+      <c r="G26" s="149">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="174"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="152">
+      <c r="H26" s="150"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="128">
         <v>0</v>
       </c>
-      <c r="K26" s="210">
-        <f>G26-J26</f>
+      <c r="K26" s="185">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="180" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177" t="s">
+    <row r="27" spans="1:11" s="156" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A27" s="152"/>
+      <c r="B27" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178">
+      <c r="C27" s="153"/>
+      <c r="D27" s="154">
         <f>SUM(D9:D25)</f>
         <v>13998</v>
       </c>
-      <c r="E27" s="178">
+      <c r="E27" s="154">
         <f>SUM(E9:E25)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="178">
+      <c r="F27" s="154">
         <f>SUM(F9:F25)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="179">
+      <c r="G27" s="155">
         <f>SUM(G9:G25)</f>
         <v>13998</v>
       </c>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="178">
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="154">
         <f>SUM(J9:J25)</f>
         <v>15397</v>
       </c>
-      <c r="K27" s="209">
+      <c r="K27" s="184">
         <f>SUM(K9:K25)</f>
         <v>-1399</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5" thickTop="1"/>
     <row r="29" spans="1:11">
-      <c r="B29" s="181"/>
-      <c r="C29" s="211"/>
-      <c r="D29" s="182" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="183" t="s">
+      <c r="E29" s="159" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="216" t="s">
+      <c r="B30" s="189" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="215">
+      <c r="C30" s="187"/>
+      <c r="D30" s="188">
         <v>44073</v>
       </c>
-      <c r="E30" s="215">
+      <c r="E30" s="188">
         <v>43830</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="186"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="162"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="188">
+      <c r="C32" s="163"/>
+      <c r="D32" s="164">
         <f>D11</f>
         <v>7295</v>
       </c>
-      <c r="E32" s="189">
+      <c r="E32" s="165">
         <f>J11</f>
         <v>1167</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="187"/>
-      <c r="D33" s="188">
+      <c r="C33" s="163"/>
+      <c r="D33" s="164">
         <f>D12</f>
         <v>2000</v>
       </c>
-      <c r="E33" s="189">
+      <c r="E33" s="165">
         <f>J12</f>
         <v>5183</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="187"/>
-      <c r="D34" s="188">
+      <c r="C34" s="163"/>
+      <c r="D34" s="164">
         <f>D13</f>
         <v>405</v>
       </c>
-      <c r="E34" s="189">
+      <c r="E34" s="165">
         <f>J13</f>
         <v>3431</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="B35" s="187" t="s">
+      <c r="B35" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="187"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="189">
+      <c r="C35" s="163"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="165">
         <v>1408</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="D36" s="188">
+      <c r="C36" s="163"/>
+      <c r="D36" s="164">
         <f>D14</f>
         <v>369</v>
       </c>
-      <c r="E36" s="189">
+      <c r="E36" s="165">
         <f>J14</f>
         <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="13.5" thickBot="1">
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="193"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" thickTop="1">
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="170" t="s">
         <v>298</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="195">
+      <c r="C38" s="170"/>
+      <c r="D38" s="171">
         <f>+SUM(D32:D36)</f>
         <v>10069</v>
       </c>
-      <c r="E38" s="196">
+      <c r="E38" s="172">
         <f>+SUM(E32:E36)</f>
         <v>11825</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
     </row>
     <row r="40" spans="1:15" ht="13.5" thickBot="1">
-      <c r="B40" s="219" t="s">
+      <c r="B40" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="219"/>
-      <c r="D40" s="192">
+      <c r="C40" s="192"/>
+      <c r="D40" s="168">
         <f>D17+D18+D19+D20+D21+D22</f>
         <v>3929</v>
       </c>
-      <c r="E40" s="193">
+      <c r="E40" s="169">
         <f>SUM(J17:J18)+SUM(J19:J25)</f>
         <v>4980</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="13.5" thickTop="1">
-      <c r="B41" s="220" t="s">
+      <c r="B41" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="220"/>
-      <c r="D41" s="217">
+      <c r="C41" s="193"/>
+      <c r="D41" s="190">
         <f>D38+D40</f>
         <v>13998</v>
       </c>
-      <c r="E41" s="217">
+      <c r="E41" s="190">
         <f>E38+E40</f>
         <v>16805</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="197" t="s">
+      <c r="A46" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="204"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
-      <c r="I46" s="205"/>
-      <c r="J46" s="206"/>
-      <c r="K46" s="206"/>
-      <c r="L46" s="206"/>
-      <c r="M46" s="206"/>
-      <c r="N46" s="207"/>
-      <c r="O46" s="206"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="181"/>
+      <c r="L46" s="181"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="181"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="198" t="s">
+      <c r="A47" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="208"/>
+      <c r="I47" s="183"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="198"/>
-      <c r="I48" s="208"/>
+      <c r="A48" s="174"/>
+      <c r="I48" s="183"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="199" t="s">
+      <c r="A49" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="208"/>
+      <c r="I49" s="183"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="198" t="s">
+      <c r="A50" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="208"/>
+      <c r="I50" s="183"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="198" t="s">
+      <c r="A51" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="208"/>
+      <c r="I51" s="183"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="198"/>
-      <c r="I52" s="208"/>
+      <c r="A52" s="174"/>
+      <c r="I52" s="183"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="198"/>
-      <c r="I53" s="208"/>
+      <c r="A53" s="174"/>
+      <c r="I53" s="183"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="199" t="s">
+      <c r="A54" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="208"/>
+      <c r="I54" s="183"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="221" t="s">
+      <c r="A57" s="194" t="s">
         <v>304</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:O5"/>
@@ -3867,6 +3880,18 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3879,160 +3904,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108" t="s">
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="12.75">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="111" t="s">
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="111"/>
+      <c r="N2" s="208"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108" t="s">
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="110">
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="211">
         <v>44134</v>
       </c>
-      <c r="N3" s="110"/>
+      <c r="N3" s="211"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="12.75">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="111" t="s">
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="111"/>
+      <c r="N4" s="208"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108" t="s">
+      <c r="B5" s="205" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1"/>
     <row r="7" spans="1:14" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="212" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="89" t="s">
@@ -4048,7 +4078,7 @@
       <c r="F8" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="213" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="11"/>
@@ -4057,12 +4087,12 @@
         <v>63</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="214" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="24">
-      <c r="A9" s="112"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="91" t="s">
         <v>65</v>
       </c>
@@ -4078,7 +4108,7 @@
       <c r="F9" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="113"/>
+      <c r="G9" s="213"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12" t="s">
         <v>70</v>
@@ -4089,7 +4119,7 @@
       <c r="K9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="114"/>
+      <c r="L9" s="214"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A10" s="14" t="s">
@@ -4208,25 +4238,25 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="30">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="221" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="222">
         <v>0</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="223">
         <v>0</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="223">
         <v>0</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="223">
         <v>0</v>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="224">
         <v>0</v>
       </c>
-      <c r="G13" s="102">
+      <c r="G13" s="225">
         <f>SUM(B13:F13)</f>
         <v>0</v>
       </c>
@@ -4243,27 +4273,27 @@
       <c r="A14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="101">
         <f t="shared" ref="B14:G14" si="0">SUM(B10:B13)</f>
         <v>405</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="102">
         <f t="shared" si="0"/>
         <v>7295</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="102">
         <f t="shared" si="0"/>
         <v>369</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="103">
         <f t="shared" si="0"/>
         <v>10069</v>
       </c>
@@ -4286,244 +4316,347 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="15">
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="A18" s="219"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A19" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="101">
+        <f t="shared" ref="B19:G19" si="1">SUM(B15:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="A20" s="219"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1">
+      <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1">
-      <c r="A17" s="31" t="s">
+    <row r="23" spans="1:12" s="9" customFormat="1">
+      <c r="A23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1">
-      <c r="A18" s="35" t="s">
+    <row r="24" spans="1:12" s="9" customFormat="1">
+      <c r="A24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B24" s="20">
         <v>2901.04</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C24" s="20">
         <v>5268.61</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D24" s="20">
         <v>2073.14</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20">
         <v>5155.91</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="20">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="20">
         <v>46728.65</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J24" s="20">
         <v>7686.25</v>
       </c>
-      <c r="K18" s="20">
-        <f>SUM(B18:J18)</f>
+      <c r="K24" s="20">
+        <f>SUM(B24:J24)</f>
         <v>69813.600000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1">
-      <c r="A19" s="35" t="s">
+    <row r="25" spans="1:12" s="9" customFormat="1">
+      <c r="A25" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B25" s="20">
         <v>1769.56</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C25" s="20">
         <v>2556.6799999999998</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D25" s="20">
         <v>1466.54</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20">
         <v>2556.41</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="20">
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="20">
         <v>20170.560000000001</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J25" s="20">
         <v>3727.53</v>
       </c>
-      <c r="K19" s="20">
-        <f>SUM(B19:J19)</f>
+      <c r="K25" s="20">
+        <f>SUM(B25:J25)</f>
         <v>32247.279999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1">
-      <c r="A20" s="35" t="s">
+    <row r="26" spans="1:12" s="9" customFormat="1">
+      <c r="A26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
         <v>0</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
-        <f>SUM(B20:J20)</f>
+      <c r="F26" s="20"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20">
+        <f>SUM(B26:J26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="15">
-      <c r="A21" s="32" t="s">
+    <row r="27" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="A27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="38">
-        <f>SUM(B18:B20)</f>
+      <c r="B27" s="38">
+        <f>SUM(B24:B26)</f>
         <v>4670.6000000000004</v>
       </c>
-      <c r="C21" s="38">
-        <f>SUM(C18:C20)</f>
+      <c r="C27" s="38">
+        <f>SUM(C24:C26)</f>
         <v>7825.2899999999991</v>
       </c>
-      <c r="D21" s="38">
-        <f>SUM(D18:D20)</f>
+      <c r="D27" s="38">
+        <f>SUM(D24:D26)</f>
         <v>3539.68</v>
       </c>
-      <c r="E21" s="38">
-        <f>SUM(E18:E20)</f>
+      <c r="E27" s="38">
+        <f>SUM(E24:E26)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="38">
-        <f>SUM(F18:F20)</f>
+      <c r="F27" s="38">
+        <f>SUM(F24:F26)</f>
         <v>7712.32</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40">
-        <f>SUM(H18:H20)</f>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40">
+        <f>SUM(H24:H26)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="38">
-        <f>SUM(I18:I20)</f>
+      <c r="I27" s="38">
+        <f>SUM(I24:I26)</f>
         <v>66899.210000000006</v>
       </c>
-      <c r="J21" s="38">
-        <f>SUM(J18:J20)</f>
+      <c r="J27" s="38">
+        <f>SUM(J24:J26)</f>
         <v>11413.78</v>
       </c>
-      <c r="K21" s="41">
-        <f>SUM(K18:K20)</f>
+      <c r="K27" s="41">
+        <f>SUM(K24:K26)</f>
         <v>102060.88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1">
-      <c r="A22" s="42" t="s">
+    <row r="28" spans="1:12" s="9" customFormat="1">
+      <c r="A28" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="43">
-        <f>B11-B21</f>
+      <c r="B28" s="43">
+        <f>B11-B27</f>
         <v>0.3999999999996362</v>
       </c>
-      <c r="C22" s="43">
-        <f>C11-C21</f>
+      <c r="C28" s="43">
+        <f>C11-C27</f>
         <v>-0.28999999999905413</v>
       </c>
-      <c r="D22" s="43">
-        <f>D11-D21</f>
+      <c r="D28" s="43">
+        <f>D11-D27</f>
         <v>0.32000000000016371</v>
       </c>
-      <c r="E22" s="43">
-        <f>E11-E21</f>
+      <c r="E28" s="43">
+        <f>E11-E27</f>
         <v>0</v>
       </c>
-      <c r="F22" s="43">
-        <f>F11-F21</f>
+      <c r="F28" s="43">
+        <f>F11-F27</f>
         <v>-0.31999999999970896</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43">
-        <f>+H21-H11</f>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43">
+        <f>+H27-H11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="43">
-        <f>I11-I21</f>
+      <c r="I28" s="43">
+        <f>I11-I27</f>
         <v>-0.21000000000640284</v>
       </c>
-      <c r="J22" s="43">
-        <f>J11-J21</f>
+      <c r="J28" s="43">
+        <f>J11-J27</f>
         <v>0.21999999999934516</v>
       </c>
-      <c r="K22" s="43">
-        <f>L11-K21</f>
+      <c r="K28" s="43">
+        <f>L11-K27</f>
         <v>0.11999999999534339</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1">
-      <c r="A24" s="9" t="s">
+    <row r="29" spans="1:12" s="9" customFormat="1">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:12" s="9" customFormat="1">
+      <c r="A30" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="I7:L7"/>
@@ -4533,11 +4666,12 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4553,11 +4687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" hidden="1"/>
@@ -4570,23 +4704,23 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:1023" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
       <c r="AMF2"/>
       <c r="AMG2"/>
       <c r="AMH2"/>
@@ -4616,24 +4750,24 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
       <c r="AMF4"/>
       <c r="AMG4"/>
       <c r="AMH4"/>
@@ -4643,26 +4777,26 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="111" t="s">
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="111"/>
+      <c r="O5" s="208"/>
       <c r="AMF5"/>
       <c r="AMG5"/>
       <c r="AMH5"/>
@@ -4672,26 +4806,26 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108" t="s">
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="110">
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="211">
         <v>44134</v>
       </c>
-      <c r="O6" s="110"/>
+      <c r="O6" s="211"/>
       <c r="AMF6"/>
       <c r="AMG6"/>
       <c r="AMH6"/>
@@ -4701,26 +4835,26 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108" t="s">
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="111" t="s">
+      <c r="K7" s="206"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="111"/>
+      <c r="O7" s="208"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
@@ -4730,36 +4864,36 @@
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108" t="s">
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
       <c r="AMF8"/>
       <c r="AMG8"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
     </row>
     <row r="10" spans="1:1023" ht="45">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
       </c>
@@ -4961,20 +5095,20 @@
       <c r="G24" s="64"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="H25" s="119" t="s">
+      <c r="B25" s="217"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="H25" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
     </row>
     <row r="26" spans="1:13" ht="42.75">
       <c r="A26" s="65"/>
@@ -5469,6 +5603,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:M4"/>
@@ -5476,18 +5622,6 @@
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="H25:M25"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5507,7 +5641,7 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -7098,13 +7232,13 @@
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
-      <selection pane="bottomRight" activeCell="R112" sqref="R112"/>
+      <selection pane="bottomRight" activeCell="R108" sqref="R108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.625" style="80" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="80" customWidth="1"/>
